--- a/extensions/BASCO2.0_modified/rois/AALROI90/AAL_ROI_Voxels.xlsx
+++ b/extensions/BASCO2.0_modified/rois/AALROI90/AAL_ROI_Voxels.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>MNI_Amygdala_L_roi</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>ROI</t>
+  </si>
+  <si>
+    <t>The voxels counted based on 2x2x2 dim</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,15 +697,18 @@
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +716,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -718,7 +724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -726,7 +732,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -734,7 +740,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -742,7 +748,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -750,7 +756,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -758,7 +764,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -766,7 +772,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -774,7 +780,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -782,7 +788,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -790,7 +796,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -798,7 +804,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -806,7 +812,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -814,7 +820,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>70</v>
       </c>
